--- a/data/output/FV2504_FV2410/UTILMD/55075.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55075.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6452" uniqueCount="547">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6473" uniqueCount="547">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1797,6 +1797,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U291" totalsRowShown="0">
+  <autoFilter ref="A1:U291"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2086,7 +2116,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U291"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -16044,5 +16077,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55075.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55075.xlsx
@@ -2633,7 +2633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2656,6 +2656,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2664,6 +2667,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3106,7 +3112,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -3470,7 +3476,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -3616,7 +3622,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -3818,7 +3824,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -4126,7 +4132,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -4326,7 +4332,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -4700,7 +4706,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -4958,7 +4964,7 @@
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N38" s="2" t="s">
@@ -5134,52 +5140,52 @@
       <c r="V41" s="5"/>
     </row>
     <row r="42" spans="1:22">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E42" s="5"/>
+      <c r="E42" s="2"/>
       <c r="F42" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5" t="s">
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="K42" s="5"/>
+      <c r="K42" s="2"/>
       <c r="L42" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="M42" s="5" t="s">
+      <c r="M42" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N42" s="5" t="s">
+      <c r="N42" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="O42" s="5" t="s">
+      <c r="O42" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="P42" s="5"/>
+      <c r="P42" s="2"/>
       <c r="Q42" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5" t="s">
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="V42" s="5"/>
+      <c r="V42" s="2"/>
     </row>
     <row r="43" spans="1:22">
       <c r="A43" s="5" t="s">
@@ -5364,26 +5370,26 @@
       <c r="B46" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8" t="s">
+      <c r="E46" s="9"/>
+      <c r="F46" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8" t="s">
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="K46" s="8" t="s">
+      <c r="K46" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="L46" s="9" t="s">
+      <c r="L46" s="10" t="s">
         <v>489</v>
       </c>
       <c r="M46" s="5"/>
@@ -5401,33 +5407,33 @@
       <c r="A47" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="G47" s="8" t="s">
+      <c r="G47" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8" t="s">
+      <c r="H47" s="9"/>
+      <c r="I47" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J47" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="K47" s="8"/>
-      <c r="L47" s="9" t="s">
+      <c r="J47" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="K47" s="9"/>
+      <c r="L47" s="10" t="s">
         <v>489</v>
       </c>
       <c r="M47" s="5"/>
@@ -5445,33 +5451,33 @@
       <c r="A48" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="G48" s="8" t="s">
+      <c r="G48" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8" t="s">
+      <c r="H48" s="9"/>
+      <c r="I48" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="J48" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="K48" s="8"/>
-      <c r="L48" s="9" t="s">
+      <c r="J48" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="K48" s="9"/>
+      <c r="L48" s="10" t="s">
         <v>489</v>
       </c>
       <c r="M48" s="5"/>
@@ -5489,31 +5495,31 @@
       <c r="A49" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8" t="s">
+      <c r="F49" s="9"/>
+      <c r="G49" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8" t="s">
+      <c r="H49" s="9"/>
+      <c r="I49" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="J49" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="K49" s="8"/>
-      <c r="L49" s="9" t="s">
+      <c r="J49" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="K49" s="9"/>
+      <c r="L49" s="10" t="s">
         <v>489</v>
       </c>
       <c r="M49" s="5"/>
@@ -5541,29 +5547,29 @@
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
-      <c r="L50" s="10" t="s">
+      <c r="L50" s="11" t="s">
         <v>490</v>
       </c>
-      <c r="M50" s="11" t="s">
+      <c r="M50" s="12" t="s">
         <v>491</v>
       </c>
-      <c r="N50" s="11" t="s">
+      <c r="N50" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="O50" s="11" t="s">
+      <c r="O50" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="11" t="s">
+      <c r="P50" s="13"/>
+      <c r="Q50" s="13" t="s">
         <v>494</v>
       </c>
-      <c r="R50" s="11"/>
-      <c r="S50" s="11"/>
-      <c r="T50" s="11"/>
-      <c r="U50" s="11" t="s">
+      <c r="R50" s="13"/>
+      <c r="S50" s="13"/>
+      <c r="T50" s="13"/>
+      <c r="U50" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="V50" s="11"/>
+      <c r="V50" s="13"/>
     </row>
     <row r="51" spans="1:22">
       <c r="A51" s="5" t="s">
@@ -5579,35 +5585,35 @@
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
-      <c r="L51" s="10" t="s">
+      <c r="L51" s="11" t="s">
         <v>490</v>
       </c>
-      <c r="M51" s="11" t="s">
+      <c r="M51" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="N51" s="11" t="s">
+      <c r="N51" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="O51" s="11" t="s">
+      <c r="O51" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="P51" s="11" t="s">
+      <c r="P51" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="Q51" s="11" t="s">
+      <c r="Q51" s="13" t="s">
         <v>494</v>
       </c>
-      <c r="R51" s="11" t="s">
+      <c r="R51" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="S51" s="11"/>
-      <c r="T51" s="11" t="s">
+      <c r="S51" s="13"/>
+      <c r="T51" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="U51" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="V51" s="11"/>
+      <c r="U51" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="V51" s="13"/>
     </row>
     <row r="52" spans="1:22">
       <c r="A52" s="5" t="s">
@@ -5623,35 +5629,35 @@
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
-      <c r="L52" s="10" t="s">
+      <c r="L52" s="11" t="s">
         <v>490</v>
       </c>
-      <c r="M52" s="11" t="s">
+      <c r="M52" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="N52" s="11" t="s">
+      <c r="N52" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="O52" s="11" t="s">
+      <c r="O52" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="P52" s="11" t="s">
+      <c r="P52" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="Q52" s="11" t="s">
+      <c r="Q52" s="13" t="s">
         <v>494</v>
       </c>
-      <c r="R52" s="11" t="s">
+      <c r="R52" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="S52" s="11"/>
-      <c r="T52" s="11" t="s">
+      <c r="S52" s="13"/>
+      <c r="T52" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="U52" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="V52" s="11"/>
+      <c r="U52" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="V52" s="13"/>
     </row>
     <row r="53" spans="1:22">
       <c r="A53" s="5" t="s">
@@ -5667,33 +5673,33 @@
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
-      <c r="L53" s="10" t="s">
+      <c r="L53" s="11" t="s">
         <v>490</v>
       </c>
-      <c r="M53" s="11" t="s">
+      <c r="M53" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="N53" s="11" t="s">
+      <c r="N53" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="O53" s="11" t="s">
+      <c r="O53" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="P53" s="11" t="s">
+      <c r="P53" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="Q53" s="11"/>
-      <c r="R53" s="11" t="s">
+      <c r="Q53" s="13"/>
+      <c r="R53" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11" t="s">
+      <c r="S53" s="13"/>
+      <c r="T53" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="U53" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="V53" s="11"/>
+      <c r="U53" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="V53" s="13"/>
     </row>
     <row r="54" spans="1:22">
       <c r="A54" s="2" t="s">
@@ -5718,7 +5724,7 @@
         <v>454</v>
       </c>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -5928,7 +5934,7 @@
         <v>456</v>
       </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -6138,7 +6144,7 @@
         <v>457</v>
       </c>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -6346,7 +6352,7 @@
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -6548,7 +6554,7 @@
         <v>454</v>
       </c>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -6676,52 +6682,52 @@
       <c r="V72" s="5"/>
     </row>
     <row r="73" spans="1:22">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D73" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E73" s="5"/>
+      <c r="E73" s="2"/>
       <c r="F73" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5" t="s">
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="K73" s="5"/>
+      <c r="K73" s="2"/>
       <c r="L73" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="M73" s="5" t="s">
+      <c r="M73" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N73" s="5" t="s">
+      <c r="N73" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O73" s="5" t="s">
+      <c r="O73" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="P73" s="5"/>
+      <c r="P73" s="2"/>
       <c r="Q73" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="R73" s="5"/>
-      <c r="S73" s="5"/>
-      <c r="T73" s="5"/>
-      <c r="U73" s="5" t="s">
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="V73" s="5"/>
+      <c r="V73" s="2"/>
     </row>
     <row r="74" spans="1:22">
       <c r="A74" s="5" t="s">
@@ -6866,7 +6872,7 @@
         <v>459</v>
       </c>
       <c r="L76" s="4"/>
-      <c r="M76" s="2" t="s">
+      <c r="M76" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N76" s="2" t="s">
@@ -6994,52 +7000,52 @@
       <c r="V78" s="5"/>
     </row>
     <row r="79" spans="1:22">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C79" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D79" s="5" t="s">
+      <c r="C79" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E79" s="5"/>
+      <c r="E79" s="2"/>
       <c r="F79" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5" t="s">
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="K79" s="5"/>
+      <c r="K79" s="2"/>
       <c r="L79" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="M79" s="5" t="s">
+      <c r="M79" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N79" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O79" s="5" t="s">
+      <c r="N79" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O79" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="P79" s="5"/>
+      <c r="P79" s="2"/>
       <c r="Q79" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="R79" s="5"/>
-      <c r="S79" s="5"/>
-      <c r="T79" s="5"/>
-      <c r="U79" s="5" t="s">
+      <c r="R79" s="2"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="2"/>
+      <c r="U79" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="V79" s="5"/>
+      <c r="V79" s="2"/>
     </row>
     <row r="80" spans="1:22">
       <c r="A80" s="5" t="s">
@@ -7184,7 +7190,7 @@
         <v>461</v>
       </c>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -7390,7 +7396,7 @@
         <v>454</v>
       </c>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -7702,7 +7708,7 @@
       </c>
       <c r="K92" s="2"/>
       <c r="L92" s="4"/>
-      <c r="M92" s="2" t="s">
+      <c r="M92" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N92" s="2" t="s">
@@ -7828,52 +7834,52 @@
       <c r="V94" s="5"/>
     </row>
     <row r="95" spans="1:22">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C95" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D95" s="5" t="s">
+      <c r="C95" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E95" s="5"/>
+      <c r="E95" s="2"/>
       <c r="F95" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5" t="s">
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="K95" s="5"/>
+      <c r="K95" s="2"/>
       <c r="L95" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="M95" s="5" t="s">
+      <c r="M95" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N95" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O95" s="5" t="s">
+      <c r="N95" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O95" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="P95" s="5"/>
+      <c r="P95" s="2"/>
       <c r="Q95" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="R95" s="5"/>
-      <c r="S95" s="5"/>
-      <c r="T95" s="5"/>
-      <c r="U95" s="5" t="s">
+      <c r="R95" s="2"/>
+      <c r="S95" s="2"/>
+      <c r="T95" s="2"/>
+      <c r="U95" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="V95" s="5"/>
+      <c r="V95" s="2"/>
     </row>
     <row r="96" spans="1:22">
       <c r="A96" s="5" t="s">
@@ -8158,20 +8164,20 @@
       <c r="B101" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C101" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="8"/>
-      <c r="J101" s="8" t="s">
+      <c r="C101" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="K101" s="8"/>
-      <c r="L101" s="9" t="s">
+      <c r="K101" s="9"/>
+      <c r="L101" s="10" t="s">
         <v>489</v>
       </c>
       <c r="M101" s="5"/>
@@ -8189,27 +8195,27 @@
       <c r="A102" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C102" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D102" s="8" t="s">
+      <c r="C102" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D102" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="E102" s="8"/>
-      <c r="F102" s="8" t="s">
+      <c r="E102" s="9"/>
+      <c r="F102" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="G102" s="8"/>
-      <c r="H102" s="8"/>
-      <c r="I102" s="8"/>
-      <c r="J102" s="8" t="s">
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="K102" s="8"/>
-      <c r="L102" s="9" t="s">
+      <c r="K102" s="9"/>
+      <c r="L102" s="10" t="s">
         <v>489</v>
       </c>
       <c r="M102" s="5"/>
@@ -8227,33 +8233,33 @@
       <c r="A103" s="5" t="s">
         <v>644</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B103" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C103" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D103" s="8" t="s">
+      <c r="C103" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D103" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="E103" s="8" t="s">
+      <c r="E103" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="F103" s="8" t="s">
+      <c r="F103" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="G103" s="8" t="s">
+      <c r="G103" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="H103" s="8"/>
-      <c r="I103" s="8" t="s">
+      <c r="H103" s="9"/>
+      <c r="I103" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="J103" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="K103" s="8"/>
-      <c r="L103" s="9" t="s">
+      <c r="J103" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="K103" s="9"/>
+      <c r="L103" s="10" t="s">
         <v>489</v>
       </c>
       <c r="M103" s="5"/>
@@ -8271,33 +8277,33 @@
       <c r="A104" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="B104" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C104" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D104" s="8" t="s">
+      <c r="C104" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D104" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="E104" s="8" t="s">
+      <c r="E104" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="F104" s="8" t="s">
+      <c r="F104" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="G104" s="8" t="s">
+      <c r="G104" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="H104" s="8"/>
-      <c r="I104" s="8" t="s">
+      <c r="H104" s="9"/>
+      <c r="I104" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="J104" s="8" t="s">
+      <c r="J104" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="K104" s="8"/>
-      <c r="L104" s="9" t="s">
+      <c r="K104" s="9"/>
+      <c r="L104" s="10" t="s">
         <v>489</v>
       </c>
       <c r="M104" s="5"/>
@@ -8315,31 +8321,31 @@
       <c r="A105" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B105" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C105" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D105" s="8" t="s">
+      <c r="C105" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D105" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="E105" s="8" t="s">
+      <c r="E105" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="F105" s="8"/>
-      <c r="G105" s="8" t="s">
+      <c r="F105" s="9"/>
+      <c r="G105" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="H105" s="8"/>
-      <c r="I105" s="8" t="s">
+      <c r="H105" s="9"/>
+      <c r="I105" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="J105" s="8" t="s">
+      <c r="J105" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="K105" s="8"/>
-      <c r="L105" s="9" t="s">
+      <c r="K105" s="9"/>
+      <c r="L105" s="10" t="s">
         <v>489</v>
       </c>
       <c r="M105" s="5"/>
@@ -8357,31 +8363,31 @@
       <c r="A106" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="B106" s="8" t="s">
+      <c r="B106" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C106" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D106" s="8" t="s">
+      <c r="C106" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D106" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="E106" s="8" t="s">
+      <c r="E106" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="F106" s="8"/>
-      <c r="G106" s="8" t="s">
+      <c r="F106" s="9"/>
+      <c r="G106" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="H106" s="8"/>
-      <c r="I106" s="8" t="s">
+      <c r="H106" s="9"/>
+      <c r="I106" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="J106" s="8" t="s">
+      <c r="J106" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="K106" s="8"/>
-      <c r="L106" s="9" t="s">
+      <c r="K106" s="9"/>
+      <c r="L106" s="10" t="s">
         <v>489</v>
       </c>
       <c r="M106" s="5"/>
@@ -8399,33 +8405,33 @@
       <c r="A107" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="B107" s="8" t="s">
+      <c r="B107" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C107" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D107" s="8" t="s">
+      <c r="C107" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D107" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="E107" s="8" t="s">
+      <c r="E107" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="F107" s="8"/>
-      <c r="G107" s="8" t="s">
+      <c r="F107" s="9"/>
+      <c r="G107" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="H107" s="8"/>
-      <c r="I107" s="8" t="s">
+      <c r="H107" s="9"/>
+      <c r="I107" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="J107" s="8" t="s">
+      <c r="J107" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="K107" s="8" t="s">
+      <c r="K107" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="L107" s="9" t="s">
+      <c r="L107" s="10" t="s">
         <v>489</v>
       </c>
       <c r="M107" s="5"/>
@@ -8453,25 +8459,25 @@
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
-      <c r="L108" s="10" t="s">
+      <c r="L108" s="11" t="s">
         <v>490</v>
       </c>
-      <c r="M108" s="11" t="s">
+      <c r="M108" s="12" t="s">
         <v>492</v>
       </c>
-      <c r="N108" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="O108" s="11"/>
-      <c r="P108" s="11"/>
-      <c r="Q108" s="11"/>
-      <c r="R108" s="11"/>
-      <c r="S108" s="11"/>
-      <c r="T108" s="11"/>
-      <c r="U108" s="11" t="s">
+      <c r="N108" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="O108" s="13"/>
+      <c r="P108" s="13"/>
+      <c r="Q108" s="13"/>
+      <c r="R108" s="13"/>
+      <c r="S108" s="13"/>
+      <c r="T108" s="13"/>
+      <c r="U108" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="V108" s="11"/>
+      <c r="V108" s="13"/>
     </row>
     <row r="109" spans="1:22">
       <c r="A109" s="5" t="s">
@@ -8487,29 +8493,29 @@
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
-      <c r="L109" s="10" t="s">
+      <c r="L109" s="11" t="s">
         <v>490</v>
       </c>
-      <c r="M109" s="11" t="s">
+      <c r="M109" s="13" t="s">
         <v>492</v>
       </c>
-      <c r="N109" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="O109" s="11" t="s">
+      <c r="N109" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="O109" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="P109" s="11"/>
-      <c r="Q109" s="11" t="s">
+      <c r="P109" s="13"/>
+      <c r="Q109" s="13" t="s">
         <v>506</v>
       </c>
-      <c r="R109" s="11"/>
-      <c r="S109" s="11"/>
-      <c r="T109" s="11"/>
-      <c r="U109" s="11" t="s">
+      <c r="R109" s="13"/>
+      <c r="S109" s="13"/>
+      <c r="T109" s="13"/>
+      <c r="U109" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="V109" s="11"/>
+      <c r="V109" s="13"/>
     </row>
     <row r="110" spans="1:22">
       <c r="A110" s="5" t="s">
@@ -8525,35 +8531,35 @@
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
-      <c r="L110" s="10" t="s">
+      <c r="L110" s="11" t="s">
         <v>490</v>
       </c>
-      <c r="M110" s="11" t="s">
+      <c r="M110" s="13" t="s">
         <v>492</v>
       </c>
-      <c r="N110" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="O110" s="11" t="s">
+      <c r="N110" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="O110" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="P110" s="11" t="s">
+      <c r="P110" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="Q110" s="11" t="s">
+      <c r="Q110" s="13" t="s">
         <v>506</v>
       </c>
-      <c r="R110" s="11" t="s">
+      <c r="R110" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="S110" s="11"/>
-      <c r="T110" s="11" t="s">
+      <c r="S110" s="13"/>
+      <c r="T110" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="U110" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="V110" s="11"/>
+      <c r="U110" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="V110" s="13"/>
     </row>
     <row r="111" spans="1:22">
       <c r="A111" s="5" t="s">
@@ -8569,35 +8575,35 @@
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
-      <c r="L111" s="10" t="s">
+      <c r="L111" s="11" t="s">
         <v>490</v>
       </c>
-      <c r="M111" s="11" t="s">
+      <c r="M111" s="13" t="s">
         <v>492</v>
       </c>
-      <c r="N111" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="O111" s="11" t="s">
+      <c r="N111" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="O111" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="P111" s="11" t="s">
+      <c r="P111" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="Q111" s="11" t="s">
+      <c r="Q111" s="13" t="s">
         <v>506</v>
       </c>
-      <c r="R111" s="11" t="s">
+      <c r="R111" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="S111" s="11"/>
-      <c r="T111" s="11" t="s">
+      <c r="S111" s="13"/>
+      <c r="T111" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="U111" s="11" t="s">
+      <c r="U111" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="V111" s="11"/>
+      <c r="V111" s="13"/>
     </row>
     <row r="112" spans="1:22">
       <c r="A112" s="5" t="s">
@@ -8613,33 +8619,33 @@
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
-      <c r="L112" s="10" t="s">
+      <c r="L112" s="11" t="s">
         <v>490</v>
       </c>
-      <c r="M112" s="11" t="s">
+      <c r="M112" s="13" t="s">
         <v>492</v>
       </c>
-      <c r="N112" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="O112" s="11" t="s">
+      <c r="N112" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="O112" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="P112" s="11" t="s">
+      <c r="P112" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="Q112" s="11"/>
-      <c r="R112" s="11" t="s">
+      <c r="Q112" s="13"/>
+      <c r="R112" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="S112" s="11"/>
-      <c r="T112" s="11" t="s">
+      <c r="S112" s="13"/>
+      <c r="T112" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="U112" s="11" t="s">
+      <c r="U112" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="V112" s="11"/>
+      <c r="V112" s="13"/>
     </row>
     <row r="113" spans="1:22">
       <c r="A113" s="5" t="s">
@@ -8655,33 +8661,33 @@
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
-      <c r="L113" s="10" t="s">
+      <c r="L113" s="11" t="s">
         <v>490</v>
       </c>
-      <c r="M113" s="11" t="s">
+      <c r="M113" s="13" t="s">
         <v>492</v>
       </c>
-      <c r="N113" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="O113" s="11" t="s">
+      <c r="N113" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="O113" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="P113" s="11" t="s">
+      <c r="P113" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="Q113" s="11"/>
-      <c r="R113" s="11" t="s">
+      <c r="Q113" s="13"/>
+      <c r="R113" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="S113" s="11"/>
-      <c r="T113" s="11" t="s">
+      <c r="S113" s="13"/>
+      <c r="T113" s="13" t="s">
         <v>542</v>
       </c>
-      <c r="U113" s="11" t="s">
+      <c r="U113" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="V113" s="11"/>
+      <c r="V113" s="13"/>
     </row>
     <row r="114" spans="1:22">
       <c r="A114" s="5" t="s">
@@ -8697,53 +8703,53 @@
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
       <c r="K114" s="5"/>
-      <c r="L114" s="10" t="s">
+      <c r="L114" s="11" t="s">
         <v>490</v>
       </c>
-      <c r="M114" s="11" t="s">
+      <c r="M114" s="13" t="s">
         <v>492</v>
       </c>
-      <c r="N114" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="O114" s="11" t="s">
+      <c r="N114" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="O114" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="P114" s="11" t="s">
+      <c r="P114" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="Q114" s="11"/>
-      <c r="R114" s="11" t="s">
+      <c r="Q114" s="13"/>
+      <c r="R114" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="S114" s="11"/>
-      <c r="T114" s="11" t="s">
+      <c r="S114" s="13"/>
+      <c r="T114" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="U114" s="11" t="s">
+      <c r="U114" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="V114" s="11" t="s">
+      <c r="V114" s="13" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="115" spans="1:22">
-      <c r="A115" s="5" t="s">
+      <c r="A115" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B115" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C115" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D115" s="5"/>
-      <c r="E115" s="5"/>
-      <c r="F115" s="5"/>
-      <c r="G115" s="5"/>
-      <c r="H115" s="5"/>
-      <c r="I115" s="5"/>
-      <c r="J115" s="5" t="s">
+      <c r="C115" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2" t="s">
         <v>425</v>
       </c>
       <c r="K115" s="6" t="s">
@@ -8752,19 +8758,19 @@
       <c r="L115" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="M115" s="5" t="s">
+      <c r="M115" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N115" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O115" s="5"/>
-      <c r="P115" s="5"/>
-      <c r="Q115" s="5"/>
-      <c r="R115" s="5"/>
-      <c r="S115" s="5"/>
-      <c r="T115" s="5"/>
-      <c r="U115" s="5" t="s">
+      <c r="N115" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O115" s="2"/>
+      <c r="P115" s="2"/>
+      <c r="Q115" s="2"/>
+      <c r="R115" s="2"/>
+      <c r="S115" s="2"/>
+      <c r="T115" s="2"/>
+      <c r="U115" s="2" t="s">
         <v>425</v>
       </c>
       <c r="V115" s="6" t="s">
@@ -9078,7 +9084,7 @@
         <v>459</v>
       </c>
       <c r="L121" s="4"/>
-      <c r="M121" s="2" t="s">
+      <c r="M121" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N121" s="2" t="s">
@@ -9206,52 +9212,52 @@
       <c r="V123" s="5"/>
     </row>
     <row r="124" spans="1:22">
-      <c r="A124" s="5" t="s">
+      <c r="A124" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="B124" s="5" t="s">
+      <c r="B124" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="C124" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D124" s="5" t="s">
+      <c r="D124" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E124" s="5"/>
+      <c r="E124" s="2"/>
       <c r="F124" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="G124" s="5"/>
-      <c r="H124" s="5"/>
-      <c r="I124" s="5"/>
-      <c r="J124" s="5" t="s">
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="K124" s="5"/>
+      <c r="K124" s="2"/>
       <c r="L124" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="M124" s="5" t="s">
+      <c r="M124" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N124" s="5" t="s">
+      <c r="N124" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O124" s="5" t="s">
+      <c r="O124" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="P124" s="5"/>
+      <c r="P124" s="2"/>
       <c r="Q124" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="R124" s="5"/>
-      <c r="S124" s="5"/>
-      <c r="T124" s="5"/>
-      <c r="U124" s="5" t="s">
+      <c r="R124" s="2"/>
+      <c r="S124" s="2"/>
+      <c r="T124" s="2"/>
+      <c r="U124" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="V124" s="5"/>
+      <c r="V124" s="2"/>
     </row>
     <row r="125" spans="1:22">
       <c r="A125" s="5" t="s">
@@ -9374,52 +9380,52 @@
       </c>
     </row>
     <row r="127" spans="1:22">
-      <c r="A127" s="5" t="s">
+      <c r="A127" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="B127" s="5" t="s">
+      <c r="B127" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C127" s="5" t="s">
+      <c r="C127" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D127" s="5" t="s">
+      <c r="D127" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E127" s="5"/>
+      <c r="E127" s="2"/>
       <c r="F127" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="G127" s="5"/>
-      <c r="H127" s="5"/>
-      <c r="I127" s="5"/>
-      <c r="J127" s="5" t="s">
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="K127" s="5"/>
+      <c r="K127" s="2"/>
       <c r="L127" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="M127" s="5" t="s">
+      <c r="M127" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N127" s="5" t="s">
+      <c r="N127" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O127" s="5" t="s">
+      <c r="O127" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P127" s="5"/>
+      <c r="P127" s="2"/>
       <c r="Q127" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="R127" s="5"/>
-      <c r="S127" s="5"/>
-      <c r="T127" s="5"/>
-      <c r="U127" s="5" t="s">
+      <c r="R127" s="2"/>
+      <c r="S127" s="2"/>
+      <c r="T127" s="2"/>
+      <c r="U127" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="V127" s="5"/>
+      <c r="V127" s="2"/>
     </row>
     <row r="128" spans="1:22">
       <c r="A128" s="5" t="s">
@@ -9624,7 +9630,7 @@
         <v>465</v>
       </c>
       <c r="L131" s="4"/>
-      <c r="M131" s="2" t="s">
+      <c r="M131" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N131" s="2" t="s">
@@ -9752,52 +9758,52 @@
       <c r="V133" s="5"/>
     </row>
     <row r="134" spans="1:22">
-      <c r="A134" s="5" t="s">
+      <c r="A134" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="B134" s="5" t="s">
+      <c r="B134" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C134" s="5" t="s">
+      <c r="C134" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D134" s="5" t="s">
+      <c r="D134" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E134" s="5"/>
+      <c r="E134" s="2"/>
       <c r="F134" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="G134" s="5"/>
-      <c r="H134" s="5"/>
-      <c r="I134" s="5"/>
-      <c r="J134" s="5" t="s">
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2"/>
+      <c r="J134" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="K134" s="5"/>
+      <c r="K134" s="2"/>
       <c r="L134" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="M134" s="5" t="s">
+      <c r="M134" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="N134" s="5" t="s">
+      <c r="N134" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O134" s="5" t="s">
+      <c r="O134" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="P134" s="5"/>
+      <c r="P134" s="2"/>
       <c r="Q134" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="R134" s="5"/>
-      <c r="S134" s="5"/>
-      <c r="T134" s="5"/>
-      <c r="U134" s="5" t="s">
+      <c r="R134" s="2"/>
+      <c r="S134" s="2"/>
+      <c r="T134" s="2"/>
+      <c r="U134" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="V134" s="5"/>
+      <c r="V134" s="2"/>
     </row>
     <row r="135" spans="1:22">
       <c r="A135" s="5" t="s">
@@ -9920,22 +9926,22 @@
       </c>
     </row>
     <row r="137" spans="1:22">
-      <c r="A137" s="5" t="s">
+      <c r="A137" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="B137" s="5" t="s">
+      <c r="B137" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C137" s="5" t="s">
+      <c r="C137" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D137" s="5"/>
-      <c r="E137" s="5"/>
-      <c r="F137" s="5"/>
-      <c r="G137" s="5"/>
-      <c r="H137" s="5"/>
-      <c r="I137" s="5"/>
-      <c r="J137" s="5" t="s">
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+      <c r="J137" s="2" t="s">
         <v>428</v>
       </c>
       <c r="K137" s="6" t="s">
@@ -9944,19 +9950,19 @@
       <c r="L137" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="M137" s="5" t="s">
+      <c r="M137" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N137" s="5" t="s">
+      <c r="N137" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="O137" s="5"/>
-      <c r="P137" s="5"/>
-      <c r="Q137" s="5"/>
-      <c r="R137" s="5"/>
-      <c r="S137" s="5"/>
-      <c r="T137" s="5"/>
-      <c r="U137" s="5" t="s">
+      <c r="O137" s="2"/>
+      <c r="P137" s="2"/>
+      <c r="Q137" s="2"/>
+      <c r="R137" s="2"/>
+      <c r="S137" s="2"/>
+      <c r="T137" s="2"/>
+      <c r="U137" s="2" t="s">
         <v>428</v>
       </c>
       <c r="V137" s="6" t="s">
@@ -10212,7 +10218,7 @@
       </c>
       <c r="K142" s="2"/>
       <c r="L142" s="4"/>
-      <c r="M142" s="2" t="s">
+      <c r="M142" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N142" s="2" t="s">
@@ -10338,52 +10344,52 @@
       <c r="V144" s="5"/>
     </row>
     <row r="145" spans="1:22">
-      <c r="A145" s="5" t="s">
+      <c r="A145" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="B145" s="5" t="s">
+      <c r="B145" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C145" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D145" s="5" t="s">
+      <c r="C145" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E145" s="5"/>
+      <c r="E145" s="2"/>
       <c r="F145" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="G145" s="5"/>
-      <c r="H145" s="5"/>
-      <c r="I145" s="5"/>
-      <c r="J145" s="5" t="s">
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2"/>
+      <c r="J145" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="K145" s="5"/>
+      <c r="K145" s="2"/>
       <c r="L145" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="M145" s="5" t="s">
+      <c r="M145" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N145" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O145" s="5" t="s">
+      <c r="N145" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O145" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="P145" s="5"/>
+      <c r="P145" s="2"/>
       <c r="Q145" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="R145" s="5"/>
-      <c r="S145" s="5"/>
-      <c r="T145" s="5"/>
-      <c r="U145" s="5" t="s">
+      <c r="R145" s="2"/>
+      <c r="S145" s="2"/>
+      <c r="T145" s="2"/>
+      <c r="U145" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="V145" s="5"/>
+      <c r="V145" s="2"/>
     </row>
     <row r="146" spans="1:22">
       <c r="A146" s="5" t="s">
@@ -10522,7 +10528,7 @@
       </c>
       <c r="K148" s="2"/>
       <c r="L148" s="4"/>
-      <c r="M148" s="2" t="s">
+      <c r="M148" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N148" s="2" t="s">
@@ -10724,7 +10730,7 @@
       </c>
       <c r="K152" s="2"/>
       <c r="L152" s="4"/>
-      <c r="M152" s="2" t="s">
+      <c r="M152" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N152" s="2" t="s">
@@ -10986,7 +10992,7 @@
         <v>468</v>
       </c>
       <c r="L157" s="4"/>
-      <c r="M157" s="2" t="s">
+      <c r="M157" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N157" s="2" t="s">
@@ -11114,52 +11120,52 @@
       <c r="V159" s="5"/>
     </row>
     <row r="160" spans="1:22">
-      <c r="A160" s="5" t="s">
+      <c r="A160" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="B160" s="5" t="s">
+      <c r="B160" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C160" s="5" t="s">
+      <c r="C160" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D160" s="5" t="s">
+      <c r="D160" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E160" s="5"/>
+      <c r="E160" s="2"/>
       <c r="F160" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="G160" s="5"/>
-      <c r="H160" s="5"/>
-      <c r="I160" s="5"/>
-      <c r="J160" s="5" t="s">
+      <c r="G160" s="2"/>
+      <c r="H160" s="2"/>
+      <c r="I160" s="2"/>
+      <c r="J160" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="K160" s="5"/>
+      <c r="K160" s="2"/>
       <c r="L160" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="M160" s="5" t="s">
+      <c r="M160" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="N160" s="5" t="s">
+      <c r="N160" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O160" s="5" t="s">
+      <c r="O160" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="P160" s="5"/>
+      <c r="P160" s="2"/>
       <c r="Q160" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="R160" s="5"/>
-      <c r="S160" s="5"/>
-      <c r="T160" s="5"/>
-      <c r="U160" s="5" t="s">
+      <c r="R160" s="2"/>
+      <c r="S160" s="2"/>
+      <c r="T160" s="2"/>
+      <c r="U160" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="V160" s="5"/>
+      <c r="V160" s="2"/>
     </row>
     <row r="161" spans="1:22">
       <c r="A161" s="5" t="s">
@@ -11282,52 +11288,52 @@
       </c>
     </row>
     <row r="163" spans="1:22">
-      <c r="A163" s="5" t="s">
+      <c r="A163" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="B163" s="5" t="s">
+      <c r="B163" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C163" s="5" t="s">
+      <c r="C163" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D163" s="5" t="s">
+      <c r="D163" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E163" s="5"/>
+      <c r="E163" s="2"/>
       <c r="F163" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="G163" s="5"/>
-      <c r="H163" s="5"/>
-      <c r="I163" s="5"/>
-      <c r="J163" s="5" t="s">
+      <c r="G163" s="2"/>
+      <c r="H163" s="2"/>
+      <c r="I163" s="2"/>
+      <c r="J163" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="K163" s="5"/>
+      <c r="K163" s="2"/>
       <c r="L163" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="M163" s="5" t="s">
+      <c r="M163" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="N163" s="5" t="s">
+      <c r="N163" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O163" s="5" t="s">
+      <c r="O163" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P163" s="5"/>
+      <c r="P163" s="2"/>
       <c r="Q163" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="R163" s="5"/>
-      <c r="S163" s="5"/>
-      <c r="T163" s="5"/>
-      <c r="U163" s="5" t="s">
+      <c r="R163" s="2"/>
+      <c r="S163" s="2"/>
+      <c r="T163" s="2"/>
+      <c r="U163" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="V163" s="5"/>
+      <c r="V163" s="2"/>
     </row>
     <row r="164" spans="1:22">
       <c r="A164" s="5" t="s">
@@ -11532,7 +11538,7 @@
         <v>470</v>
       </c>
       <c r="L167" s="4"/>
-      <c r="M167" s="2" t="s">
+      <c r="M167" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N167" s="2" t="s">
@@ -11660,52 +11666,52 @@
       <c r="V169" s="5"/>
     </row>
     <row r="170" spans="1:22">
-      <c r="A170" s="5" t="s">
+      <c r="A170" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="B170" s="5" t="s">
+      <c r="B170" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C170" s="5" t="s">
+      <c r="C170" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D170" s="5" t="s">
+      <c r="D170" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E170" s="5"/>
+      <c r="E170" s="2"/>
       <c r="F170" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="G170" s="5"/>
-      <c r="H170" s="5"/>
-      <c r="I170" s="5"/>
-      <c r="J170" s="5" t="s">
+      <c r="G170" s="2"/>
+      <c r="H170" s="2"/>
+      <c r="I170" s="2"/>
+      <c r="J170" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="K170" s="5"/>
+      <c r="K170" s="2"/>
       <c r="L170" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="M170" s="5" t="s">
+      <c r="M170" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="N170" s="5" t="s">
+      <c r="N170" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O170" s="5" t="s">
+      <c r="O170" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="P170" s="5"/>
+      <c r="P170" s="2"/>
       <c r="Q170" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="R170" s="5"/>
-      <c r="S170" s="5"/>
-      <c r="T170" s="5"/>
-      <c r="U170" s="5" t="s">
+      <c r="R170" s="2"/>
+      <c r="S170" s="2"/>
+      <c r="T170" s="2"/>
+      <c r="U170" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="V170" s="5"/>
+      <c r="V170" s="2"/>
     </row>
     <row r="171" spans="1:22">
       <c r="A171" s="5" t="s">
@@ -11828,26 +11834,26 @@
       </c>
     </row>
     <row r="173" spans="1:22">
-      <c r="A173" s="5" t="s">
+      <c r="A173" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="B173" s="5" t="s">
+      <c r="B173" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C173" s="5" t="s">
+      <c r="C173" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D173" s="5" t="s">
+      <c r="D173" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E173" s="5"/>
+      <c r="E173" s="2"/>
       <c r="F173" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="G173" s="5"/>
-      <c r="H173" s="5"/>
-      <c r="I173" s="5"/>
-      <c r="J173" s="5" t="s">
+      <c r="G173" s="2"/>
+      <c r="H173" s="2"/>
+      <c r="I173" s="2"/>
+      <c r="J173" s="2" t="s">
         <v>433</v>
       </c>
       <c r="K173" s="6" t="s">
@@ -11856,23 +11862,23 @@
       <c r="L173" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="M173" s="5" t="s">
+      <c r="M173" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="N173" s="5" t="s">
+      <c r="N173" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O173" s="5" t="s">
+      <c r="O173" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="P173" s="5"/>
+      <c r="P173" s="2"/>
       <c r="Q173" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="R173" s="5"/>
-      <c r="S173" s="5"/>
-      <c r="T173" s="5"/>
-      <c r="U173" s="5" t="s">
+      <c r="R173" s="2"/>
+      <c r="S173" s="2"/>
+      <c r="T173" s="2"/>
+      <c r="U173" s="2" t="s">
         <v>433</v>
       </c>
       <c r="V173" s="6" t="s">
@@ -12016,7 +12022,7 @@
       </c>
       <c r="K176" s="2"/>
       <c r="L176" s="4"/>
-      <c r="M176" s="2" t="s">
+      <c r="M176" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N176" s="2" t="s">
@@ -12574,52 +12580,52 @@
       <c r="V186" s="5"/>
     </row>
     <row r="187" spans="1:22">
-      <c r="A187" s="5" t="s">
+      <c r="A187" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="B187" s="5" t="s">
+      <c r="B187" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C187" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D187" s="5" t="s">
+      <c r="C187" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D187" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E187" s="5"/>
+      <c r="E187" s="2"/>
       <c r="F187" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G187" s="5"/>
-      <c r="H187" s="5"/>
-      <c r="I187" s="5"/>
-      <c r="J187" s="5" t="s">
+      <c r="G187" s="2"/>
+      <c r="H187" s="2"/>
+      <c r="I187" s="2"/>
+      <c r="J187" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="K187" s="5"/>
+      <c r="K187" s="2"/>
       <c r="L187" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="M187" s="5" t="s">
+      <c r="M187" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N187" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O187" s="5" t="s">
+      <c r="N187" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O187" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="P187" s="5"/>
+      <c r="P187" s="2"/>
       <c r="Q187" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="R187" s="5"/>
-      <c r="S187" s="5"/>
-      <c r="T187" s="5"/>
-      <c r="U187" s="5" t="s">
+      <c r="R187" s="2"/>
+      <c r="S187" s="2"/>
+      <c r="T187" s="2"/>
+      <c r="U187" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="V187" s="5"/>
+      <c r="V187" s="2"/>
     </row>
     <row r="188" spans="1:22">
       <c r="A188" s="5" t="s">
@@ -12738,54 +12744,54 @@
       <c r="V189" s="5"/>
     </row>
     <row r="190" spans="1:22">
-      <c r="A190" s="5" t="s">
+      <c r="A190" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="B190" s="5" t="s">
+      <c r="B190" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C190" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D190" s="5" t="s">
+      <c r="C190" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D190" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E190" s="5"/>
+      <c r="E190" s="2"/>
       <c r="F190" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="G190" s="5"/>
-      <c r="H190" s="5"/>
-      <c r="I190" s="5"/>
-      <c r="J190" s="5" t="s">
+      <c r="G190" s="2"/>
+      <c r="H190" s="2"/>
+      <c r="I190" s="2"/>
+      <c r="J190" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="K190" s="5" t="s">
+      <c r="K190" s="2" t="s">
         <v>472</v>
       </c>
       <c r="L190" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="M190" s="5" t="s">
+      <c r="M190" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="N190" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O190" s="5" t="s">
+      <c r="N190" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O190" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="P190" s="5"/>
+      <c r="P190" s="2"/>
       <c r="Q190" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="R190" s="5"/>
-      <c r="S190" s="5"/>
-      <c r="T190" s="5"/>
-      <c r="U190" s="5" t="s">
+      <c r="R190" s="2"/>
+      <c r="S190" s="2"/>
+      <c r="T190" s="2"/>
+      <c r="U190" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="V190" s="5" t="s">
+      <c r="V190" s="2" t="s">
         <v>472</v>
       </c>
     </row>
@@ -12958,52 +12964,52 @@
       <c r="V193" s="5"/>
     </row>
     <row r="194" spans="1:22">
-      <c r="A194" s="5" t="s">
+      <c r="A194" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="B194" s="5" t="s">
+      <c r="B194" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C194" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D194" s="5" t="s">
+      <c r="C194" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D194" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E194" s="5"/>
+      <c r="E194" s="2"/>
       <c r="F194" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="G194" s="5"/>
-      <c r="H194" s="5"/>
-      <c r="I194" s="5"/>
-      <c r="J194" s="5" t="s">
+      <c r="G194" s="2"/>
+      <c r="H194" s="2"/>
+      <c r="I194" s="2"/>
+      <c r="J194" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="K194" s="5"/>
+      <c r="K194" s="2"/>
       <c r="L194" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="M194" s="5" t="s">
+      <c r="M194" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="N194" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O194" s="5" t="s">
+      <c r="N194" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O194" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="P194" s="5"/>
+      <c r="P194" s="2"/>
       <c r="Q194" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="R194" s="5"/>
-      <c r="S194" s="5"/>
-      <c r="T194" s="5"/>
-      <c r="U194" s="5" t="s">
+      <c r="R194" s="2"/>
+      <c r="S194" s="2"/>
+      <c r="T194" s="2"/>
+      <c r="U194" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="V194" s="5"/>
+      <c r="V194" s="2"/>
     </row>
     <row r="195" spans="1:22">
       <c r="A195" s="5" t="s">
@@ -13142,7 +13148,7 @@
         <v>473</v>
       </c>
       <c r="L197" s="4"/>
-      <c r="M197" s="2" t="s">
+      <c r="M197" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N197" s="2" t="s">
@@ -13270,54 +13276,54 @@
       <c r="V199" s="5"/>
     </row>
     <row r="200" spans="1:22">
-      <c r="A200" s="5" t="s">
+      <c r="A200" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="B200" s="5" t="s">
+      <c r="B200" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C200" s="5" t="s">
+      <c r="C200" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D200" s="5" t="s">
+      <c r="D200" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E200" s="5"/>
+      <c r="E200" s="2"/>
       <c r="F200" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G200" s="5"/>
-      <c r="H200" s="5"/>
-      <c r="I200" s="5"/>
-      <c r="J200" s="5" t="s">
+      <c r="G200" s="2"/>
+      <c r="H200" s="2"/>
+      <c r="I200" s="2"/>
+      <c r="J200" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="K200" s="5" t="s">
+      <c r="K200" s="2" t="s">
         <v>474</v>
       </c>
       <c r="L200" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="M200" s="5" t="s">
+      <c r="M200" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="N200" s="5" t="s">
+      <c r="N200" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O200" s="5" t="s">
+      <c r="O200" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="P200" s="5"/>
+      <c r="P200" s="2"/>
       <c r="Q200" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="R200" s="5"/>
-      <c r="S200" s="5"/>
-      <c r="T200" s="5"/>
-      <c r="U200" s="5" t="s">
+      <c r="R200" s="2"/>
+      <c r="S200" s="2"/>
+      <c r="T200" s="2"/>
+      <c r="U200" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="V200" s="5" t="s">
+      <c r="V200" s="2" t="s">
         <v>474</v>
       </c>
     </row>
@@ -13496,52 +13502,52 @@
       <c r="V203" s="5"/>
     </row>
     <row r="204" spans="1:22">
-      <c r="A204" s="5" t="s">
+      <c r="A204" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="B204" s="5" t="s">
+      <c r="B204" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C204" s="5" t="s">
+      <c r="C204" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D204" s="5" t="s">
+      <c r="D204" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E204" s="5"/>
+      <c r="E204" s="2"/>
       <c r="F204" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="G204" s="5"/>
-      <c r="H204" s="5"/>
-      <c r="I204" s="5"/>
-      <c r="J204" s="5" t="s">
+      <c r="G204" s="2"/>
+      <c r="H204" s="2"/>
+      <c r="I204" s="2"/>
+      <c r="J204" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="K204" s="5"/>
+      <c r="K204" s="2"/>
       <c r="L204" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="M204" s="5" t="s">
+      <c r="M204" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="N204" s="5" t="s">
+      <c r="N204" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O204" s="5" t="s">
+      <c r="O204" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="P204" s="5"/>
+      <c r="P204" s="2"/>
       <c r="Q204" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="R204" s="5"/>
-      <c r="S204" s="5"/>
-      <c r="T204" s="5"/>
-      <c r="U204" s="5" t="s">
+      <c r="R204" s="2"/>
+      <c r="S204" s="2"/>
+      <c r="T204" s="2"/>
+      <c r="U204" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="V204" s="5"/>
+      <c r="V204" s="2"/>
     </row>
     <row r="205" spans="1:22">
       <c r="A205" s="5" t="s">
@@ -13664,26 +13670,26 @@
       </c>
     </row>
     <row r="207" spans="1:22">
-      <c r="A207" s="5" t="s">
+      <c r="A207" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="B207" s="5" t="s">
+      <c r="B207" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C207" s="5" t="s">
+      <c r="C207" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D207" s="5" t="s">
+      <c r="D207" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E207" s="5"/>
+      <c r="E207" s="2"/>
       <c r="F207" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="G207" s="5"/>
-      <c r="H207" s="5"/>
-      <c r="I207" s="5"/>
-      <c r="J207" s="5" t="s">
+      <c r="G207" s="2"/>
+      <c r="H207" s="2"/>
+      <c r="I207" s="2"/>
+      <c r="J207" s="2" t="s">
         <v>438</v>
       </c>
       <c r="K207" s="6" t="s">
@@ -13692,23 +13698,23 @@
       <c r="L207" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="M207" s="5" t="s">
+      <c r="M207" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="N207" s="5" t="s">
+      <c r="N207" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O207" s="5" t="s">
+      <c r="O207" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="P207" s="5"/>
+      <c r="P207" s="2"/>
       <c r="Q207" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="R207" s="5"/>
-      <c r="S207" s="5"/>
-      <c r="T207" s="5"/>
-      <c r="U207" s="5" t="s">
+      <c r="R207" s="2"/>
+      <c r="S207" s="2"/>
+      <c r="T207" s="2"/>
+      <c r="U207" s="2" t="s">
         <v>438</v>
       </c>
       <c r="V207" s="6" t="s">
@@ -13832,52 +13838,52 @@
       <c r="V209" s="5"/>
     </row>
     <row r="210" spans="1:22">
-      <c r="A210" s="5" t="s">
+      <c r="A210" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="B210" s="5" t="s">
+      <c r="B210" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C210" s="5" t="s">
+      <c r="C210" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D210" s="5" t="s">
+      <c r="D210" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E210" s="5"/>
+      <c r="E210" s="2"/>
       <c r="F210" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="G210" s="5"/>
-      <c r="H210" s="5"/>
-      <c r="I210" s="5"/>
-      <c r="J210" s="5" t="s">
+      <c r="G210" s="2"/>
+      <c r="H210" s="2"/>
+      <c r="I210" s="2"/>
+      <c r="J210" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="K210" s="5"/>
+      <c r="K210" s="2"/>
       <c r="L210" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="M210" s="5" t="s">
+      <c r="M210" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="N210" s="5" t="s">
+      <c r="N210" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O210" s="5" t="s">
+      <c r="O210" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P210" s="5"/>
+      <c r="P210" s="2"/>
       <c r="Q210" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="R210" s="5"/>
-      <c r="S210" s="5"/>
-      <c r="T210" s="5"/>
-      <c r="U210" s="5" t="s">
+      <c r="R210" s="2"/>
+      <c r="S210" s="2"/>
+      <c r="T210" s="2"/>
+      <c r="U210" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="V210" s="5"/>
+      <c r="V210" s="2"/>
     </row>
     <row r="211" spans="1:22">
       <c r="A211" s="5" t="s">
@@ -14060,22 +14066,22 @@
       <c r="V213" s="5"/>
     </row>
     <row r="214" spans="1:22">
-      <c r="A214" s="5" t="s">
+      <c r="A214" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="B214" s="5" t="s">
+      <c r="B214" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C214" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D214" s="5"/>
-      <c r="E214" s="5"/>
-      <c r="F214" s="5"/>
-      <c r="G214" s="5"/>
-      <c r="H214" s="5"/>
-      <c r="I214" s="5"/>
-      <c r="J214" s="5" t="s">
+      <c r="C214" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D214" s="2"/>
+      <c r="E214" s="2"/>
+      <c r="F214" s="2"/>
+      <c r="G214" s="2"/>
+      <c r="H214" s="2"/>
+      <c r="I214" s="2"/>
+      <c r="J214" s="2" t="s">
         <v>440</v>
       </c>
       <c r="K214" s="6" t="s">
@@ -14084,19 +14090,19 @@
       <c r="L214" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="M214" s="5" t="s">
+      <c r="M214" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="N214" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O214" s="5"/>
-      <c r="P214" s="5"/>
-      <c r="Q214" s="5"/>
-      <c r="R214" s="5"/>
-      <c r="S214" s="5"/>
-      <c r="T214" s="5"/>
-      <c r="U214" s="5" t="s">
+      <c r="N214" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O214" s="2"/>
+      <c r="P214" s="2"/>
+      <c r="Q214" s="2"/>
+      <c r="R214" s="2"/>
+      <c r="S214" s="2"/>
+      <c r="T214" s="2"/>
+      <c r="U214" s="2" t="s">
         <v>440</v>
       </c>
       <c r="V214" s="6" t="s">
@@ -14504,7 +14510,7 @@
         <v>479</v>
       </c>
       <c r="L222" s="4"/>
-      <c r="M222" s="2" t="s">
+      <c r="M222" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N222" s="2" t="s">
@@ -14874,7 +14880,7 @@
         <v>480</v>
       </c>
       <c r="L229" s="4"/>
-      <c r="M229" s="2" t="s">
+      <c r="M229" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N229" s="2" t="s">
@@ -15002,52 +15008,52 @@
       <c r="V231" s="5"/>
     </row>
     <row r="232" spans="1:22">
-      <c r="A232" s="5" t="s">
+      <c r="A232" s="2" t="s">
         <v>771</v>
       </c>
-      <c r="B232" s="5" t="s">
+      <c r="B232" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C232" s="5" t="s">
+      <c r="C232" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D232" s="5" t="s">
+      <c r="D232" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E232" s="5"/>
+      <c r="E232" s="2"/>
       <c r="F232" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="G232" s="5"/>
-      <c r="H232" s="5"/>
-      <c r="I232" s="5"/>
-      <c r="J232" s="5" t="s">
+      <c r="G232" s="2"/>
+      <c r="H232" s="2"/>
+      <c r="I232" s="2"/>
+      <c r="J232" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="K232" s="5"/>
+      <c r="K232" s="2"/>
       <c r="L232" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="M232" s="5" t="s">
+      <c r="M232" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="N232" s="5" t="s">
+      <c r="N232" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O232" s="5" t="s">
+      <c r="O232" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="P232" s="5"/>
+      <c r="P232" s="2"/>
       <c r="Q232" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="R232" s="5"/>
-      <c r="S232" s="5"/>
-      <c r="T232" s="5"/>
-      <c r="U232" s="5" t="s">
+      <c r="R232" s="2"/>
+      <c r="S232" s="2"/>
+      <c r="T232" s="2"/>
+      <c r="U232" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="V232" s="5"/>
+      <c r="V232" s="2"/>
     </row>
     <row r="233" spans="1:22">
       <c r="A233" s="5" t="s">
@@ -15186,7 +15192,7 @@
       </c>
       <c r="K235" s="2"/>
       <c r="L235" s="4"/>
-      <c r="M235" s="2" t="s">
+      <c r="M235" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N235" s="2" t="s">
@@ -15312,54 +15318,54 @@
       <c r="V237" s="5"/>
     </row>
     <row r="238" spans="1:22">
-      <c r="A238" s="5" t="s">
+      <c r="A238" s="2" t="s">
         <v>777</v>
       </c>
-      <c r="B238" s="5" t="s">
+      <c r="B238" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C238" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D238" s="5" t="s">
+      <c r="C238" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D238" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E238" s="5"/>
+      <c r="E238" s="2"/>
       <c r="F238" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="G238" s="5"/>
-      <c r="H238" s="5"/>
-      <c r="I238" s="5"/>
-      <c r="J238" s="5" t="s">
+      <c r="G238" s="2"/>
+      <c r="H238" s="2"/>
+      <c r="I238" s="2"/>
+      <c r="J238" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="K238" s="5" t="s">
+      <c r="K238" s="2" t="s">
         <v>481</v>
       </c>
       <c r="L238" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="M238" s="5" t="s">
+      <c r="M238" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N238" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O238" s="5" t="s">
+      <c r="N238" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O238" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="P238" s="5"/>
+      <c r="P238" s="2"/>
       <c r="Q238" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="R238" s="5"/>
-      <c r="S238" s="5"/>
-      <c r="T238" s="5"/>
-      <c r="U238" s="5" t="s">
+      <c r="R238" s="2"/>
+      <c r="S238" s="2"/>
+      <c r="T238" s="2"/>
+      <c r="U238" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="V238" s="5" t="s">
+      <c r="V238" s="2" t="s">
         <v>481</v>
       </c>
     </row>
@@ -15480,52 +15486,52 @@
       <c r="V240" s="5"/>
     </row>
     <row r="241" spans="1:22">
-      <c r="A241" s="5" t="s">
+      <c r="A241" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="B241" s="5" t="s">
+      <c r="B241" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C241" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D241" s="5" t="s">
+      <c r="C241" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D241" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E241" s="5"/>
+      <c r="E241" s="2"/>
       <c r="F241" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="G241" s="5"/>
-      <c r="H241" s="5"/>
-      <c r="I241" s="5"/>
-      <c r="J241" s="5" t="s">
+      <c r="G241" s="2"/>
+      <c r="H241" s="2"/>
+      <c r="I241" s="2"/>
+      <c r="J241" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="K241" s="5"/>
+      <c r="K241" s="2"/>
       <c r="L241" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="M241" s="5" t="s">
+      <c r="M241" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="N241" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O241" s="5" t="s">
+      <c r="N241" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O241" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="P241" s="5"/>
+      <c r="P241" s="2"/>
       <c r="Q241" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="R241" s="5"/>
-      <c r="S241" s="5"/>
-      <c r="T241" s="5"/>
-      <c r="U241" s="5" t="s">
+      <c r="R241" s="2"/>
+      <c r="S241" s="2"/>
+      <c r="T241" s="2"/>
+      <c r="U241" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="V241" s="5"/>
+      <c r="V241" s="2"/>
     </row>
     <row r="242" spans="1:22">
       <c r="A242" s="5" t="s">
@@ -15832,7 +15838,7 @@
         <v>480</v>
       </c>
       <c r="L247" s="4"/>
-      <c r="M247" s="2" t="s">
+      <c r="M247" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N247" s="2" t="s">
@@ -16106,52 +16112,52 @@
       <c r="V252" s="5"/>
     </row>
     <row r="253" spans="1:22">
-      <c r="A253" s="5" t="s">
+      <c r="A253" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="B253" s="5" t="s">
+      <c r="B253" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C253" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D253" s="5" t="s">
+      <c r="C253" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D253" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E253" s="5"/>
+      <c r="E253" s="2"/>
       <c r="F253" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="G253" s="5"/>
-      <c r="H253" s="5"/>
-      <c r="I253" s="5"/>
-      <c r="J253" s="5" t="s">
+      <c r="G253" s="2"/>
+      <c r="H253" s="2"/>
+      <c r="I253" s="2"/>
+      <c r="J253" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="K253" s="5"/>
+      <c r="K253" s="2"/>
       <c r="L253" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="M253" s="5" t="s">
+      <c r="M253" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N253" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O253" s="5" t="s">
+      <c r="N253" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O253" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="P253" s="5"/>
+      <c r="P253" s="2"/>
       <c r="Q253" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="R253" s="5"/>
-      <c r="S253" s="5"/>
-      <c r="T253" s="5"/>
-      <c r="U253" s="5" t="s">
+      <c r="R253" s="2"/>
+      <c r="S253" s="2"/>
+      <c r="T253" s="2"/>
+      <c r="U253" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="V253" s="5"/>
+      <c r="V253" s="2"/>
     </row>
     <row r="254" spans="1:22">
       <c r="A254" s="5" t="s">
@@ -16296,7 +16302,7 @@
         <v>484</v>
       </c>
       <c r="L256" s="4"/>
-      <c r="M256" s="2" t="s">
+      <c r="M256" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N256" s="2" t="s">
@@ -16424,52 +16430,52 @@
       <c r="V258" s="5"/>
     </row>
     <row r="259" spans="1:22">
-      <c r="A259" s="5" t="s">
+      <c r="A259" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="B259" s="5" t="s">
+      <c r="B259" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C259" s="5" t="s">
+      <c r="C259" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D259" s="5" t="s">
+      <c r="D259" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E259" s="5"/>
+      <c r="E259" s="2"/>
       <c r="F259" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G259" s="5"/>
-      <c r="H259" s="5"/>
-      <c r="I259" s="5"/>
-      <c r="J259" s="5" t="s">
+      <c r="G259" s="2"/>
+      <c r="H259" s="2"/>
+      <c r="I259" s="2"/>
+      <c r="J259" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="K259" s="5"/>
+      <c r="K259" s="2"/>
       <c r="L259" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="M259" s="5" t="s">
+      <c r="M259" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="N259" s="5" t="s">
+      <c r="N259" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O259" s="5" t="s">
+      <c r="O259" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="P259" s="5"/>
+      <c r="P259" s="2"/>
       <c r="Q259" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="R259" s="5"/>
-      <c r="S259" s="5"/>
-      <c r="T259" s="5"/>
-      <c r="U259" s="5" t="s">
+      <c r="R259" s="2"/>
+      <c r="S259" s="2"/>
+      <c r="T259" s="2"/>
+      <c r="U259" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="V259" s="5"/>
+      <c r="V259" s="2"/>
     </row>
     <row r="260" spans="1:22">
       <c r="A260" s="5" t="s">
@@ -16588,52 +16594,52 @@
       <c r="V261" s="5"/>
     </row>
     <row r="262" spans="1:22">
-      <c r="A262" s="5" t="s">
+      <c r="A262" s="2" t="s">
         <v>801</v>
       </c>
-      <c r="B262" s="5" t="s">
+      <c r="B262" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C262" s="5" t="s">
+      <c r="C262" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D262" s="5" t="s">
+      <c r="D262" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E262" s="5"/>
+      <c r="E262" s="2"/>
       <c r="F262" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="G262" s="5"/>
-      <c r="H262" s="5"/>
-      <c r="I262" s="5"/>
-      <c r="J262" s="5" t="s">
+      <c r="G262" s="2"/>
+      <c r="H262" s="2"/>
+      <c r="I262" s="2"/>
+      <c r="J262" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="K262" s="5"/>
+      <c r="K262" s="2"/>
       <c r="L262" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="M262" s="5" t="s">
+      <c r="M262" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N262" s="5" t="s">
+      <c r="N262" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O262" s="5" t="s">
+      <c r="O262" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="P262" s="5"/>
+      <c r="P262" s="2"/>
       <c r="Q262" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="R262" s="5"/>
-      <c r="S262" s="5"/>
-      <c r="T262" s="5"/>
-      <c r="U262" s="5" t="s">
+      <c r="R262" s="2"/>
+      <c r="S262" s="2"/>
+      <c r="T262" s="2"/>
+      <c r="U262" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="V262" s="5"/>
+      <c r="V262" s="2"/>
     </row>
     <row r="263" spans="1:22">
       <c r="A263" s="5" t="s">
@@ -16776,7 +16782,7 @@
       </c>
       <c r="K265" s="2"/>
       <c r="L265" s="4"/>
-      <c r="M265" s="2" t="s">
+      <c r="M265" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N265" s="2" t="s">
@@ -16902,52 +16908,52 @@
       <c r="V267" s="5"/>
     </row>
     <row r="268" spans="1:22">
-      <c r="A268" s="5" t="s">
+      <c r="A268" s="2" t="s">
         <v>807</v>
       </c>
-      <c r="B268" s="5" t="s">
+      <c r="B268" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C268" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D268" s="5" t="s">
+      <c r="C268" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D268" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E268" s="5"/>
+      <c r="E268" s="2"/>
       <c r="F268" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="G268" s="5"/>
-      <c r="H268" s="5"/>
-      <c r="I268" s="5"/>
-      <c r="J268" s="5" t="s">
+      <c r="G268" s="2"/>
+      <c r="H268" s="2"/>
+      <c r="I268" s="2"/>
+      <c r="J268" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="K268" s="5"/>
+      <c r="K268" s="2"/>
       <c r="L268" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="M268" s="5" t="s">
+      <c r="M268" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N268" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O268" s="5" t="s">
+      <c r="N268" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O268" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="P268" s="5"/>
+      <c r="P268" s="2"/>
       <c r="Q268" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="R268" s="5"/>
-      <c r="S268" s="5"/>
-      <c r="T268" s="5"/>
-      <c r="U268" s="5" t="s">
+      <c r="R268" s="2"/>
+      <c r="S268" s="2"/>
+      <c r="T268" s="2"/>
+      <c r="U268" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="V268" s="5"/>
+      <c r="V268" s="2"/>
     </row>
     <row r="269" spans="1:22">
       <c r="A269" s="5" t="s">
@@ -17092,7 +17098,7 @@
         <v>485</v>
       </c>
       <c r="L271" s="4"/>
-      <c r="M271" s="2" t="s">
+      <c r="M271" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N271" s="2" t="s">
@@ -17390,52 +17396,52 @@
       <c r="V276" s="5"/>
     </row>
     <row r="277" spans="1:22">
-      <c r="A277" s="5" t="s">
+      <c r="A277" s="2" t="s">
         <v>816</v>
       </c>
-      <c r="B277" s="5" t="s">
+      <c r="B277" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C277" s="5" t="s">
+      <c r="C277" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D277" s="5" t="s">
+      <c r="D277" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E277" s="5"/>
+      <c r="E277" s="2"/>
       <c r="F277" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="G277" s="5"/>
-      <c r="H277" s="5"/>
-      <c r="I277" s="5"/>
-      <c r="J277" s="5" t="s">
+      <c r="G277" s="2"/>
+      <c r="H277" s="2"/>
+      <c r="I277" s="2"/>
+      <c r="J277" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="K277" s="5"/>
+      <c r="K277" s="2"/>
       <c r="L277" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="M277" s="5" t="s">
+      <c r="M277" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="N277" s="5" t="s">
+      <c r="N277" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="O277" s="5" t="s">
+      <c r="O277" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="P277" s="5"/>
+      <c r="P277" s="2"/>
       <c r="Q277" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="R277" s="5"/>
-      <c r="S277" s="5"/>
-      <c r="T277" s="5"/>
-      <c r="U277" s="5" t="s">
+      <c r="R277" s="2"/>
+      <c r="S277" s="2"/>
+      <c r="T277" s="2"/>
+      <c r="U277" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="V277" s="5"/>
+      <c r="V277" s="2"/>
     </row>
     <row r="278" spans="1:22">
       <c r="A278" s="5" t="s">
@@ -17634,7 +17640,7 @@
         <v>486</v>
       </c>
       <c r="L281" s="4"/>
-      <c r="M281" s="2" t="s">
+      <c r="M281" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N281" s="2" t="s">
@@ -18046,48 +18052,48 @@
       <c r="V288" s="5"/>
     </row>
     <row r="289" spans="1:22">
-      <c r="A289" s="5" t="s">
+      <c r="A289" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="B289" s="5" t="s">
+      <c r="B289" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C289" s="5"/>
-      <c r="D289" s="5" t="s">
+      <c r="C289" s="2"/>
+      <c r="D289" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E289" s="5"/>
+      <c r="E289" s="2"/>
       <c r="F289" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="G289" s="5"/>
-      <c r="H289" s="5"/>
-      <c r="I289" s="5"/>
-      <c r="J289" s="5" t="s">
+      <c r="G289" s="2"/>
+      <c r="H289" s="2"/>
+      <c r="I289" s="2"/>
+      <c r="J289" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="K289" s="5"/>
+      <c r="K289" s="2"/>
       <c r="L289" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="M289" s="5" t="s">
+      <c r="M289" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="N289" s="5"/>
-      <c r="O289" s="5" t="s">
+      <c r="N289" s="2"/>
+      <c r="O289" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="P289" s="5"/>
+      <c r="P289" s="2"/>
       <c r="Q289" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="R289" s="5"/>
-      <c r="S289" s="5"/>
-      <c r="T289" s="5"/>
-      <c r="U289" s="5" t="s">
+      <c r="R289" s="2"/>
+      <c r="S289" s="2"/>
+      <c r="T289" s="2"/>
+      <c r="U289" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="V289" s="5"/>
+      <c r="V289" s="2"/>
     </row>
     <row r="290" spans="1:22">
       <c r="A290" s="5" t="s">
